--- a/data/pca/factorExposure/factorExposure_2016-12-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-12-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01370499069579643</v>
+        <v>-0.01356268506471725</v>
       </c>
       <c r="C2">
-        <v>0.04357083502322354</v>
+        <v>0.041466416562307</v>
       </c>
       <c r="D2">
-        <v>-0.04629548752968423</v>
+        <v>-0.06069566281386764</v>
       </c>
       <c r="E2">
-        <v>0.0140476816956827</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.007603271534908152</v>
+      </c>
+      <c r="F2">
+        <v>0.06529784042909353</v>
+      </c>
+      <c r="G2">
+        <v>-0.080684052799238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.06145430976895711</v>
+        <v>-0.03648554601423967</v>
       </c>
       <c r="C3">
-        <v>0.1017120626416882</v>
+        <v>0.08920494801291295</v>
       </c>
       <c r="D3">
-        <v>-0.0200425718839014</v>
+        <v>-0.1029662838521123</v>
       </c>
       <c r="E3">
-        <v>0.03071930039978762</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.02591225775947329</v>
+      </c>
+      <c r="F3">
+        <v>0.03446962986533182</v>
+      </c>
+      <c r="G3">
+        <v>-0.1040953758261145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06270375288786939</v>
+        <v>-0.05590496344594198</v>
       </c>
       <c r="C4">
-        <v>0.06369626770629773</v>
+        <v>0.06003903874164065</v>
       </c>
       <c r="D4">
-        <v>-0.02389194035813732</v>
+        <v>-0.05803444914385619</v>
       </c>
       <c r="E4">
-        <v>-0.002738321820891941</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.003877331544503143</v>
+      </c>
+      <c r="F4">
+        <v>0.04176568291065133</v>
+      </c>
+      <c r="G4">
+        <v>-0.08861450651895361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.02553841765710795</v>
+        <v>-0.03465054074213673</v>
       </c>
       <c r="C6">
-        <v>0.05554127753653974</v>
+        <v>0.0396435935988264</v>
       </c>
       <c r="D6">
-        <v>-0.01119502208954662</v>
+        <v>-0.06503562310815013</v>
       </c>
       <c r="E6">
-        <v>0.004179604852156634</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01199511428271623</v>
+      </c>
+      <c r="F6">
+        <v>0.02852250146635147</v>
+      </c>
+      <c r="G6">
+        <v>-0.08595670632977634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01837839870574615</v>
+        <v>-0.02051792395961</v>
       </c>
       <c r="C7">
-        <v>0.04507955739568973</v>
+        <v>0.03589925894602052</v>
       </c>
       <c r="D7">
-        <v>-0.01443206922046401</v>
+        <v>-0.03268318981272687</v>
       </c>
       <c r="E7">
-        <v>-0.01580093951296631</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.005347891734941001</v>
+      </c>
+      <c r="F7">
+        <v>0.04449947409967227</v>
+      </c>
+      <c r="G7">
+        <v>-0.1157325268891896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0009708693091778343</v>
+        <v>-0.005013996742330487</v>
       </c>
       <c r="C8">
-        <v>0.009918526192330121</v>
+        <v>0.01968039464040868</v>
       </c>
       <c r="D8">
-        <v>-0.008510351811546852</v>
+        <v>-0.03739574315332254</v>
       </c>
       <c r="E8">
-        <v>0.01239289114763507</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.005378991908166796</v>
+      </c>
+      <c r="F8">
+        <v>0.01814662453713386</v>
+      </c>
+      <c r="G8">
+        <v>-0.06560464023799464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02797065640419432</v>
+        <v>-0.03481897381974636</v>
       </c>
       <c r="C9">
-        <v>0.04261950993999405</v>
+        <v>0.04541073442408636</v>
       </c>
       <c r="D9">
-        <v>-0.01976428011614928</v>
+        <v>-0.04187305518873249</v>
       </c>
       <c r="E9">
-        <v>-0.009539531369515705</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.001049418022248341</v>
+      </c>
+      <c r="F9">
+        <v>0.04151044200166851</v>
+      </c>
+      <c r="G9">
+        <v>-0.09216789294903882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07099279751383951</v>
+        <v>-0.09179415989110006</v>
       </c>
       <c r="C10">
-        <v>-0.1991996655160963</v>
+        <v>-0.1956574880625781</v>
       </c>
       <c r="D10">
-        <v>-0.01189226313336275</v>
+        <v>-0.01445544043995556</v>
       </c>
       <c r="E10">
-        <v>0.01468210377044276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02847009866819731</v>
+      </c>
+      <c r="F10">
+        <v>0.02063137757075782</v>
+      </c>
+      <c r="G10">
+        <v>-0.04699655969690721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.03947482991531099</v>
+        <v>-0.0364210019266252</v>
       </c>
       <c r="C11">
-        <v>0.05235338624591736</v>
+        <v>0.05076623457304264</v>
       </c>
       <c r="D11">
-        <v>-0.001584280683356473</v>
+        <v>-0.02862321794957215</v>
       </c>
       <c r="E11">
-        <v>-0.009712706475241481</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01559029295592631</v>
+      </c>
+      <c r="F11">
+        <v>0.01409215364506165</v>
+      </c>
+      <c r="G11">
+        <v>-0.07325508007176808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03503682346560063</v>
+        <v>-0.03726364583520645</v>
       </c>
       <c r="C12">
-        <v>0.04326654911613716</v>
+        <v>0.04643965366743345</v>
       </c>
       <c r="D12">
-        <v>-0.003676089242863938</v>
+        <v>-0.01971010571636569</v>
       </c>
       <c r="E12">
-        <v>-0.01100299188467361</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.006414541428383361</v>
+      </c>
+      <c r="F12">
+        <v>0.01975631404626996</v>
+      </c>
+      <c r="G12">
+        <v>-0.0723765691544402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.007087272429369093</v>
+        <v>-0.01070446031781896</v>
       </c>
       <c r="C13">
-        <v>0.03720358788197826</v>
+        <v>0.03637772460161769</v>
       </c>
       <c r="D13">
-        <v>-0.02378950019862139</v>
+        <v>-0.06788034724131115</v>
       </c>
       <c r="E13">
-        <v>0.01168931973443962</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.01570904443443362</v>
+      </c>
+      <c r="F13">
+        <v>0.05021328142950776</v>
+      </c>
+      <c r="G13">
+        <v>-0.1249113746873492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006125721278282492</v>
+        <v>-0.008506561635334664</v>
       </c>
       <c r="C14">
-        <v>0.02861950225967487</v>
+        <v>0.02734507097176524</v>
       </c>
       <c r="D14">
-        <v>-0.01045291338561252</v>
+        <v>-0.02578386827455384</v>
       </c>
       <c r="E14">
-        <v>-0.01671828801351644</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.003333352541562973</v>
+      </c>
+      <c r="F14">
+        <v>0.04127778623786778</v>
+      </c>
+      <c r="G14">
+        <v>-0.106917768932414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03382179936206701</v>
+        <v>-0.0351671678220425</v>
       </c>
       <c r="C16">
-        <v>0.03932011055469846</v>
+        <v>0.04395909645436989</v>
       </c>
       <c r="D16">
-        <v>-0.0017820513750152</v>
+        <v>-0.02477561096326833</v>
       </c>
       <c r="E16">
-        <v>-0.00471177807684208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.001598670711503542</v>
+      </c>
+      <c r="F16">
+        <v>0.01966442620756227</v>
+      </c>
+      <c r="G16">
+        <v>-0.07852099824156387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.03041230225727816</v>
+        <v>-0.0175913514608863</v>
       </c>
       <c r="C19">
-        <v>0.05676357409856953</v>
+        <v>0.04745313401054725</v>
       </c>
       <c r="D19">
-        <v>-0.02603774013254275</v>
+        <v>-0.1050013985528681</v>
       </c>
       <c r="E19">
-        <v>0.02928096411000553</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.01695004334428242</v>
+      </c>
+      <c r="F19">
+        <v>0.04806008150772242</v>
+      </c>
+      <c r="G19">
+        <v>-0.1232400296466504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01228939847164788</v>
+        <v>-0.01605109913233261</v>
       </c>
       <c r="C20">
-        <v>0.04433218947343663</v>
+        <v>0.0367363869265354</v>
       </c>
       <c r="D20">
-        <v>-0.01858879468977177</v>
+        <v>-0.04965890222238651</v>
       </c>
       <c r="E20">
-        <v>0.01751043338883804</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02705590408311375</v>
+      </c>
+      <c r="F20">
+        <v>0.0426648994123657</v>
+      </c>
+      <c r="G20">
+        <v>-0.09873526994495592</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.004547400023104135</v>
+        <v>-0.006168932615916885</v>
       </c>
       <c r="C21">
-        <v>0.03687134840635236</v>
+        <v>0.03579241038646828</v>
       </c>
       <c r="D21">
-        <v>-0.02941336668667229</v>
+        <v>-0.07119018822381143</v>
       </c>
       <c r="E21">
-        <v>0.02172556582951226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.01597875031062681</v>
+      </c>
+      <c r="F21">
+        <v>0.05960336010757702</v>
+      </c>
+      <c r="G21">
+        <v>-0.1380995382344413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.002534493539967117</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.01272721283729248</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-0.02475986004336591</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.001047390195012336</v>
+      </c>
+      <c r="F22">
+        <v>-0.0002682071082680648</v>
+      </c>
+      <c r="G22">
+        <v>-0.01401186132926971</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.002555151783119438</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.01267604651120975</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-0.02455306063961581</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.000726071168577428</v>
+      </c>
+      <c r="F23">
+        <v>-0.0002368284020941981</v>
+      </c>
+      <c r="G23">
+        <v>-0.01381166523798927</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0275128668434857</v>
+        <v>-0.03103677642763584</v>
       </c>
       <c r="C24">
-        <v>0.04681161859339096</v>
+        <v>0.04943034764689705</v>
       </c>
       <c r="D24">
-        <v>-0.009528496311765765</v>
+        <v>-0.02456505841120687</v>
       </c>
       <c r="E24">
-        <v>-0.0144388073549233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.008666883789343993</v>
+      </c>
+      <c r="F24">
+        <v>0.02692380047741176</v>
+      </c>
+      <c r="G24">
+        <v>-0.07593811925927163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04568099060639674</v>
+        <v>-0.04317059011822236</v>
       </c>
       <c r="C25">
-        <v>0.05315287271170146</v>
+        <v>0.05600548033698249</v>
       </c>
       <c r="D25">
-        <v>-0.008748319224179336</v>
+        <v>-0.01822475083010821</v>
       </c>
       <c r="E25">
-        <v>-0.02409803715779275</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.008636625536637339</v>
+      </c>
+      <c r="F25">
+        <v>0.02910437115625851</v>
+      </c>
+      <c r="G25">
+        <v>-0.0860549332102155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.004787500762294864</v>
+        <v>-0.01455163629513342</v>
       </c>
       <c r="C26">
-        <v>0.01235543798878978</v>
+        <v>0.01045540244570601</v>
       </c>
       <c r="D26">
-        <v>-0.02986458130611772</v>
+        <v>-0.02251729147022593</v>
       </c>
       <c r="E26">
-        <v>-0.006266852161786348</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.001366200485691857</v>
+      </c>
+      <c r="F26">
+        <v>0.05053570382401285</v>
+      </c>
+      <c r="G26">
+        <v>-0.07185583841219668</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08563062495742668</v>
+        <v>-0.1228153339740071</v>
       </c>
       <c r="C28">
-        <v>-0.2284665774412042</v>
+        <v>-0.2467366743997176</v>
       </c>
       <c r="D28">
-        <v>-0.0218967034652771</v>
+        <v>0.0006159010173242146</v>
       </c>
       <c r="E28">
-        <v>0.006235694821527537</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.02837525528854628</v>
+      </c>
+      <c r="F28">
+        <v>0.03385230442960332</v>
+      </c>
+      <c r="G28">
+        <v>-0.04668800604029748</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01081145686573211</v>
+        <v>-0.00773512605831179</v>
       </c>
       <c r="C29">
-        <v>0.02075732394723428</v>
+        <v>0.02265809347159637</v>
       </c>
       <c r="D29">
-        <v>-0.005326475965925683</v>
+        <v>-0.01650701697263033</v>
       </c>
       <c r="E29">
-        <v>-0.01439473516873651</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.007569533923903988</v>
+      </c>
+      <c r="F29">
+        <v>0.03436296693267797</v>
+      </c>
+      <c r="G29">
+        <v>-0.09897602608618593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03698846353842226</v>
+        <v>-0.03906703866546907</v>
       </c>
       <c r="C30">
-        <v>0.07474972413644203</v>
+        <v>0.06431249232292595</v>
       </c>
       <c r="D30">
-        <v>-0.03369133009578196</v>
+        <v>-0.09133756447980902</v>
       </c>
       <c r="E30">
-        <v>-0.01021765886348053</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.02185688468771857</v>
+      </c>
+      <c r="F30">
+        <v>0.04975856553101995</v>
+      </c>
+      <c r="G30">
+        <v>-0.1058195720983254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.04272960878891458</v>
+        <v>-0.05634094940199055</v>
       </c>
       <c r="C31">
-        <v>0.02671809867295276</v>
+        <v>0.04091888198808116</v>
       </c>
       <c r="D31">
-        <v>-0.01765931032490458</v>
+        <v>-0.003881144436515934</v>
       </c>
       <c r="E31">
-        <v>-0.02149706052586071</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02848510188322037</v>
+      </c>
+      <c r="F31">
+        <v>0.04880243387197304</v>
+      </c>
+      <c r="G31">
+        <v>-0.08518383690948612</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.009762665867176326</v>
+        <v>-0.002232849124677475</v>
       </c>
       <c r="C32">
-        <v>0.03488690946109191</v>
+        <v>0.02332109911366943</v>
       </c>
       <c r="D32">
-        <v>-0.008421790343310217</v>
+        <v>-0.04725708833147164</v>
       </c>
       <c r="E32">
-        <v>0.01832421434759471</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01211791654338115</v>
+      </c>
+      <c r="F32">
+        <v>0.01656505780206476</v>
+      </c>
+      <c r="G32">
+        <v>-0.07381771021364486</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02831957056475299</v>
+        <v>-0.02651424920143236</v>
       </c>
       <c r="C33">
-        <v>0.05587380446404553</v>
+        <v>0.046307829999171</v>
       </c>
       <c r="D33">
-        <v>-0.02243711064504874</v>
+        <v>-0.07414055584724308</v>
       </c>
       <c r="E33">
-        <v>-0.0001643339348881054</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.001697706245064049</v>
+      </c>
+      <c r="F33">
+        <v>0.05023852459111397</v>
+      </c>
+      <c r="G33">
+        <v>-0.1480484389269593</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05305762598382365</v>
+        <v>-0.04263168424118087</v>
       </c>
       <c r="C34">
-        <v>0.05023161587737765</v>
+        <v>0.0601693464493232</v>
       </c>
       <c r="D34">
-        <v>0.004468192430457162</v>
+        <v>-0.02206752194758675</v>
       </c>
       <c r="E34">
-        <v>-0.01680020226949084</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02107842432937984</v>
+      </c>
+      <c r="F34">
+        <v>0.008988293436555652</v>
+      </c>
+      <c r="G34">
+        <v>-0.07886181181329503</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.006779190118590795</v>
+        <v>-0.01513932869951317</v>
       </c>
       <c r="C36">
-        <v>0.005839909972890628</v>
+        <v>0.006360050736251323</v>
       </c>
       <c r="D36">
-        <v>-0.01136067286066189</v>
+        <v>-0.02371438313719302</v>
       </c>
       <c r="E36">
-        <v>-0.009027982448894736</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.007434098391904627</v>
+      </c>
+      <c r="F36">
+        <v>0.03679255138370729</v>
+      </c>
+      <c r="G36">
+        <v>-0.09121054520624813</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.0350403675070923</v>
+        <v>-0.03158995031882569</v>
       </c>
       <c r="C38">
-        <v>0.02001438624093659</v>
+        <v>0.02217096684129346</v>
       </c>
       <c r="D38">
-        <v>-0.004551978917676906</v>
+        <v>-0.02139098540376032</v>
       </c>
       <c r="E38">
-        <v>-0.01616798554297293</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.01261651163391901</v>
+      </c>
+      <c r="F38">
+        <v>0.02740150429470124</v>
+      </c>
+      <c r="G38">
+        <v>-0.08780188493714541</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.03695866085302795</v>
+        <v>-0.03709820541343715</v>
       </c>
       <c r="C39">
-        <v>0.08420846893814746</v>
+        <v>0.07484644056977224</v>
       </c>
       <c r="D39">
-        <v>-0.009423820361782196</v>
+        <v>-0.0470326152367132</v>
       </c>
       <c r="E39">
-        <v>1.499867686392324e-06</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.01753099302071215</v>
+      </c>
+      <c r="F39">
+        <v>0.02566836149903667</v>
+      </c>
+      <c r="G39">
+        <v>-0.08456195294465418</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01611053715936078</v>
+        <v>-0.01637243066281335</v>
       </c>
       <c r="C40">
-        <v>0.02661352048374041</v>
+        <v>0.03532602758480184</v>
       </c>
       <c r="D40">
-        <v>-0.01768389188329417</v>
+        <v>-0.03757930530684164</v>
       </c>
       <c r="E40">
-        <v>0.0125411759722607</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02643301063383194</v>
+      </c>
+      <c r="F40">
+        <v>0.04574797138041906</v>
+      </c>
+      <c r="G40">
+        <v>-0.1118642390827174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.009961323523238242</v>
+        <v>-0.01828462818685699</v>
       </c>
       <c r="C41">
-        <v>-0.0007536410856464467</v>
+        <v>-0.001751202651574853</v>
       </c>
       <c r="D41">
-        <v>-0.009372070721509074</v>
+        <v>-0.01921985092562462</v>
       </c>
       <c r="E41">
-        <v>-0.01262960046114858</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01214127902685842</v>
+      </c>
+      <c r="F41">
+        <v>0.03403018121104925</v>
+      </c>
+      <c r="G41">
+        <v>-0.08247868385498877</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.005276570640024328</v>
+        <v>-0.003659998418459319</v>
       </c>
       <c r="C42">
-        <v>0.04919765780430612</v>
+        <v>0.02673858190479785</v>
       </c>
       <c r="D42">
-        <v>-0.1236460306419923</v>
+        <v>-0.006869023003428412</v>
       </c>
       <c r="E42">
-        <v>0.005704618642929766</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.01169199394468299</v>
+      </c>
+      <c r="F42">
+        <v>0.1187212723404319</v>
+      </c>
+      <c r="G42">
+        <v>0.07680129498469879</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.02899435013837349</v>
+        <v>-0.03313470729937846</v>
       </c>
       <c r="C43">
-        <v>0.009019455881326825</v>
+        <v>0.01111118543414757</v>
       </c>
       <c r="D43">
-        <v>-0.008352497034098313</v>
+        <v>-0.03765090605274558</v>
       </c>
       <c r="E43">
-        <v>-0.0127602847118456</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.009837855482174867</v>
+      </c>
+      <c r="F43">
+        <v>0.03664733120813452</v>
+      </c>
+      <c r="G43">
+        <v>-0.1108316404092559</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02126604539297562</v>
+        <v>-0.01495281575891634</v>
       </c>
       <c r="C44">
-        <v>0.05467309406904432</v>
+        <v>0.05159344674384294</v>
       </c>
       <c r="D44">
-        <v>-0.01253479056802852</v>
+        <v>-0.0436349517363987</v>
       </c>
       <c r="E44">
-        <v>0.002973504890393702</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01803075279816844</v>
+      </c>
+      <c r="F44">
+        <v>0.03859705629880122</v>
+      </c>
+      <c r="G44">
+        <v>-0.1116535065256234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.001322109536810733</v>
+        <v>-0.009785395435217231</v>
       </c>
       <c r="C46">
-        <v>0.01248129689513645</v>
+        <v>0.01746926375984626</v>
       </c>
       <c r="D46">
-        <v>-0.01282505793996604</v>
+        <v>-0.01021837122189486</v>
       </c>
       <c r="E46">
-        <v>-0.02614117926510081</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.01189172706572821</v>
+      </c>
+      <c r="F46">
+        <v>0.04761781559037326</v>
+      </c>
+      <c r="G46">
+        <v>-0.103560993262888</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.07654980861983578</v>
+        <v>-0.08577401040326162</v>
       </c>
       <c r="C47">
-        <v>0.06241625625818366</v>
+        <v>0.07098909669624755</v>
       </c>
       <c r="D47">
-        <v>0.0003074070942197574</v>
+        <v>0.006963269192258766</v>
       </c>
       <c r="E47">
-        <v>-0.01458389249829545</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.03904916056251188</v>
+      </c>
+      <c r="F47">
+        <v>0.03027059930303851</v>
+      </c>
+      <c r="G47">
+        <v>-0.08614511813391806</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01266169787595678</v>
+        <v>-0.01724144043978068</v>
       </c>
       <c r="C48">
-        <v>0.01036950776416687</v>
+        <v>0.01243961943535738</v>
       </c>
       <c r="D48">
-        <v>0.003456585101219399</v>
+        <v>-0.01623316786596599</v>
       </c>
       <c r="E48">
-        <v>-0.01421657473523678</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.01908374929807234</v>
+      </c>
+      <c r="F48">
+        <v>0.02851470804270864</v>
+      </c>
+      <c r="G48">
+        <v>-0.1059023937496665</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08085302124332536</v>
+        <v>-0.07875717928334745</v>
       </c>
       <c r="C50">
-        <v>0.05757947667674453</v>
+        <v>0.06733943158912015</v>
       </c>
       <c r="D50">
-        <v>-0.002409510989545328</v>
+        <v>-0.000294863108080334</v>
       </c>
       <c r="E50">
-        <v>-0.02440528549568857</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.0374879763140947</v>
+      </c>
+      <c r="F50">
+        <v>0.03759373018343956</v>
+      </c>
+      <c r="G50">
+        <v>-0.0961543361592989</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.0194146554568035</v>
+        <v>-0.01209348204719908</v>
       </c>
       <c r="C51">
-        <v>0.03930018256862763</v>
+        <v>0.03183307275643703</v>
       </c>
       <c r="D51">
-        <v>-0.0165573975272001</v>
+        <v>-0.0443517638022484</v>
       </c>
       <c r="E51">
-        <v>-0.00719156427284176</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01145931866198735</v>
+      </c>
+      <c r="F51">
+        <v>0.03823712529602979</v>
+      </c>
+      <c r="G51">
+        <v>-0.09607209902365495</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.104098691225756</v>
+        <v>-0.08738708334656731</v>
       </c>
       <c r="C53">
-        <v>0.06754702213732558</v>
+        <v>0.08495397321186467</v>
       </c>
       <c r="D53">
-        <v>0.008131901373730151</v>
+        <v>0.02845188311726654</v>
       </c>
       <c r="E53">
-        <v>-0.03516030920323599</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.04280091864366364</v>
+      </c>
+      <c r="F53">
+        <v>0.0246963977116375</v>
+      </c>
+      <c r="G53">
+        <v>-0.09337080942136136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02788776916970649</v>
+        <v>-0.03161527529761887</v>
       </c>
       <c r="C54">
-        <v>0.0004100956147674378</v>
+        <v>0.01691914458806546</v>
       </c>
       <c r="D54">
-        <v>-0.002254124468055373</v>
+        <v>-0.02951038913815905</v>
       </c>
       <c r="E54">
-        <v>0.001025881155479794</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.0106603620397829</v>
+      </c>
+      <c r="F54">
+        <v>0.03000761206067815</v>
+      </c>
+      <c r="G54">
+        <v>-0.108854660908045</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07978426754031492</v>
+        <v>-0.08183685531124527</v>
       </c>
       <c r="C55">
-        <v>0.05928973984238613</v>
+        <v>0.06878767835153396</v>
       </c>
       <c r="D55">
-        <v>0.008281038942320141</v>
+        <v>0.0336202424311039</v>
       </c>
       <c r="E55">
-        <v>-0.0323611116475956</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.04413348761292824</v>
+      </c>
+      <c r="F55">
+        <v>0.02071890219962238</v>
+      </c>
+      <c r="G55">
+        <v>-0.0688089970837857</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1582274465497214</v>
+        <v>-0.1438104192280758</v>
       </c>
       <c r="C56">
-        <v>0.08534960703774774</v>
+        <v>0.1043624900238737</v>
       </c>
       <c r="D56">
-        <v>0.02930860451742594</v>
+        <v>0.04181059746626156</v>
       </c>
       <c r="E56">
-        <v>-0.02745277311947545</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.05409572894659345</v>
+      </c>
+      <c r="F56">
+        <v>-0.001782312007259074</v>
+      </c>
+      <c r="G56">
+        <v>-0.06412454937287929</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.00572403921190486</v>
+        <v>-0.002399038562560608</v>
       </c>
       <c r="C57">
-        <v>0.007761693465473815</v>
+        <v>0.004026321024011405</v>
       </c>
       <c r="D57">
-        <v>-0.01424182300690619</v>
+        <v>-0.02711840189505506</v>
       </c>
       <c r="E57">
-        <v>0.03095529301757136</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.0002968120265864237</v>
+      </c>
+      <c r="F57">
+        <v>0.006674192312407516</v>
+      </c>
+      <c r="G57">
+        <v>-0.007728762758512239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04525336899605041</v>
+        <v>-0.03674048720594071</v>
       </c>
       <c r="C58">
-        <v>0.06280391100256939</v>
+        <v>0.03247014794970929</v>
       </c>
       <c r="D58">
-        <v>-0.06005856955366985</v>
+        <v>-0.6982738540128302</v>
       </c>
       <c r="E58">
-        <v>0.9620459308299385</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.6149447068721937</v>
+      </c>
+      <c r="F58">
+        <v>-0.1048265384538976</v>
+      </c>
+      <c r="G58">
+        <v>0.2780498377230375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1345722656446788</v>
+        <v>-0.1467750257931486</v>
       </c>
       <c r="C59">
-        <v>-0.2267722754915022</v>
+        <v>-0.2052370891747315</v>
       </c>
       <c r="D59">
-        <v>-0.006243721279055462</v>
+        <v>-0.02217629809854165</v>
       </c>
       <c r="E59">
-        <v>0.01211907360172436</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01210849600543308</v>
+      </c>
+      <c r="F59">
+        <v>0.00767765814105303</v>
+      </c>
+      <c r="G59">
+        <v>-0.03836253659314649</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3137528813415069</v>
+        <v>-0.287571206745758</v>
       </c>
       <c r="C60">
-        <v>0.06917017124925</v>
+        <v>0.0887587986160671</v>
       </c>
       <c r="D60">
-        <v>-0.02570094696622967</v>
+        <v>-0.1374393946340962</v>
       </c>
       <c r="E60">
-        <v>0.03894501417402917</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.2907479879283844</v>
+      </c>
+      <c r="F60">
+        <v>-0.08965699200710861</v>
+      </c>
+      <c r="G60">
+        <v>0.1425606084046107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.03282860244506706</v>
+        <v>-0.03915332347619532</v>
       </c>
       <c r="C61">
-        <v>0.06326673905078706</v>
+        <v>0.06239649105379168</v>
       </c>
       <c r="D61">
-        <v>-0.0002630966330868095</v>
+        <v>-0.04068599803883746</v>
       </c>
       <c r="E61">
-        <v>9.510223635117737e-05</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.00790572507184178</v>
+      </c>
+      <c r="F61">
+        <v>0.01836001866809714</v>
+      </c>
+      <c r="G61">
+        <v>-0.08732862016910956</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.009829713053461732</v>
+        <v>-0.01527024850753167</v>
       </c>
       <c r="C63">
-        <v>0.02977868792198847</v>
+        <v>0.02658266168190777</v>
       </c>
       <c r="D63">
-        <v>-0.007319783926779479</v>
+        <v>-0.01604779394798295</v>
       </c>
       <c r="E63">
-        <v>-0.02574215961237462</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.009449882304194147</v>
+      </c>
+      <c r="F63">
+        <v>0.03261072295588575</v>
+      </c>
+      <c r="G63">
+        <v>-0.0867762002901043</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04630092165665162</v>
+        <v>-0.05247401577374999</v>
       </c>
       <c r="C64">
-        <v>0.02902479008605444</v>
+        <v>0.04663155216727644</v>
       </c>
       <c r="D64">
-        <v>-0.01106914168857512</v>
+        <v>-0.01005966863803249</v>
       </c>
       <c r="E64">
-        <v>-0.02348112789997385</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.005857441394015468</v>
+      </c>
+      <c r="F64">
+        <v>0.03325036414124497</v>
+      </c>
+      <c r="G64">
+        <v>-0.08770512647410446</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08471842530476875</v>
+        <v>-0.07161903010103027</v>
       </c>
       <c r="C65">
-        <v>0.06287204700375371</v>
+        <v>0.04512270198203644</v>
       </c>
       <c r="D65">
-        <v>-0.01714830771650845</v>
+        <v>-0.06865713500607501</v>
       </c>
       <c r="E65">
-        <v>0.002874649449432087</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.00526304588937661</v>
+      </c>
+      <c r="F65">
+        <v>0.01807730387754103</v>
+      </c>
+      <c r="G65">
+        <v>-0.03912981839639188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06086320804775955</v>
+        <v>-0.04976827476364531</v>
       </c>
       <c r="C66">
-        <v>0.1210602512358692</v>
+        <v>0.09909350104847743</v>
       </c>
       <c r="D66">
-        <v>-0.01062392743558886</v>
+        <v>-0.07050034649282648</v>
       </c>
       <c r="E66">
-        <v>0.006786830145498563</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02171692915234303</v>
+      </c>
+      <c r="F66">
+        <v>0.0216199198824368</v>
+      </c>
+      <c r="G66">
+        <v>-0.09091872957170656</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06146756653748942</v>
+        <v>-0.05402872634471578</v>
       </c>
       <c r="C67">
-        <v>0.02200546335780421</v>
+        <v>0.02786987623069195</v>
       </c>
       <c r="D67">
-        <v>-0.002941078039124927</v>
+        <v>-0.007253060994203333</v>
       </c>
       <c r="E67">
-        <v>-0.02015531298326154</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.007615351762120734</v>
+      </c>
+      <c r="F67">
+        <v>0.02144884106995043</v>
+      </c>
+      <c r="G67">
+        <v>-0.07504887981469383</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.09869461570076253</v>
+        <v>-0.1488428171088609</v>
       </c>
       <c r="C68">
-        <v>-0.2867062465044371</v>
+        <v>-0.2685759742128748</v>
       </c>
       <c r="D68">
-        <v>-0.03309788368513096</v>
+        <v>0.003997712733624956</v>
       </c>
       <c r="E68">
-        <v>0.0129409294331577</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.03987116378443801</v>
+      </c>
+      <c r="F68">
+        <v>0.04281277078769121</v>
+      </c>
+      <c r="G68">
+        <v>-0.01382424158677842</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0853581471968031</v>
+        <v>-0.08497639654152894</v>
       </c>
       <c r="C69">
-        <v>0.05659917685257882</v>
+        <v>0.07369198419994977</v>
       </c>
       <c r="D69">
-        <v>0.005235096848126499</v>
+        <v>0.01195673309574467</v>
       </c>
       <c r="E69">
-        <v>-0.0375628412655092</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.01381442067542358</v>
+      </c>
+      <c r="F69">
+        <v>0.02709793500129357</v>
+      </c>
+      <c r="G69">
+        <v>-0.09657353039711022</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,231 +2304,315 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1092505198429699</v>
+        <v>-0.1369335285036671</v>
       </c>
       <c r="C71">
-        <v>-0.238734629119452</v>
+        <v>-0.2376206656623108</v>
       </c>
       <c r="D71">
-        <v>-0.02506057891857645</v>
+        <v>-0.02396290446732845</v>
       </c>
       <c r="E71">
-        <v>0.01616572300447413</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03759137128191824</v>
+      </c>
+      <c r="F71">
+        <v>0.03586123887750195</v>
+      </c>
+      <c r="G71">
+        <v>-0.05973721262871719</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.07520566147366789</v>
+        <v>-0.08706892395208997</v>
       </c>
       <c r="C72">
-        <v>0.05856261873002724</v>
+        <v>0.05822099975126901</v>
       </c>
       <c r="D72">
-        <v>-0.007162032839466244</v>
+        <v>-0.009050577990975221</v>
       </c>
       <c r="E72">
-        <v>-0.05808720986419409</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.02755162533356431</v>
+      </c>
+      <c r="F72">
+        <v>0.02856407503654373</v>
+      </c>
+      <c r="G72">
+        <v>-0.07497649721640304</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4501300252337683</v>
+        <v>-0.3743791168472285</v>
       </c>
       <c r="C73">
-        <v>0.07228924961862634</v>
+        <v>0.07851005578929135</v>
       </c>
       <c r="D73">
-        <v>-0.070120369644513</v>
+        <v>-0.2929071816980982</v>
       </c>
       <c r="E73">
-        <v>0.06211970724845951</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.5091808167971232</v>
+      </c>
+      <c r="F73">
+        <v>-0.1589256853589722</v>
+      </c>
+      <c r="G73">
+        <v>0.3080289041199753</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1213262579720737</v>
+        <v>-0.1098731140876036</v>
       </c>
       <c r="C74">
-        <v>0.1110442308783199</v>
+        <v>0.1021483252141596</v>
       </c>
       <c r="D74">
-        <v>0.02172672299123772</v>
+        <v>0.01560383854187377</v>
       </c>
       <c r="E74">
-        <v>-0.02855449929034115</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.05738971915947683</v>
+      </c>
+      <c r="F74">
+        <v>0.009393871063883535</v>
+      </c>
+      <c r="G74">
+        <v>-0.07957572530718041</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2746067016001545</v>
+        <v>-0.2551306906856858</v>
       </c>
       <c r="C75">
-        <v>0.1160847225304947</v>
+        <v>0.1426800216705028</v>
       </c>
       <c r="D75">
-        <v>0.05805136063524378</v>
+        <v>0.1091831433868106</v>
       </c>
       <c r="E75">
-        <v>-0.03636819915701026</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.1257751238873121</v>
+      </c>
+      <c r="F75">
+        <v>-0.02346195299073608</v>
+      </c>
+      <c r="G75">
+        <v>-0.04244638471822314</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1259428920238654</v>
+        <v>-0.1241250229698285</v>
       </c>
       <c r="C76">
-        <v>0.09824502245124052</v>
+        <v>0.1038852026542833</v>
       </c>
       <c r="D76">
-        <v>0.03228137501148713</v>
+        <v>0.04610587646256677</v>
       </c>
       <c r="E76">
-        <v>-0.03676724322644186</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.07830008412318767</v>
+      </c>
+      <c r="F76">
+        <v>0.002507410597372217</v>
+      </c>
+      <c r="G76">
+        <v>-0.07773914733419487</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.06979618371924336</v>
+        <v>-0.06688489188890591</v>
       </c>
       <c r="C77">
-        <v>0.05676817981005749</v>
+        <v>0.06169354355757054</v>
       </c>
       <c r="D77">
-        <v>-0.01460757660683401</v>
+        <v>-0.05736481034286698</v>
       </c>
       <c r="E77">
-        <v>0.01670162924421335</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.03214574447393356</v>
+      </c>
+      <c r="F77">
+        <v>0.02887790556086922</v>
+      </c>
+      <c r="G77">
+        <v>-0.09928036450711253</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04642429352702332</v>
+        <v>-0.04175430787495505</v>
       </c>
       <c r="C78">
-        <v>0.05048342703166259</v>
+        <v>0.05522066573458756</v>
       </c>
       <c r="D78">
-        <v>-0.0008306061174088483</v>
+        <v>-0.05846944271079558</v>
       </c>
       <c r="E78">
-        <v>0.006344631241026076</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02408309458914565</v>
+      </c>
+      <c r="F78">
+        <v>0.01164088201480257</v>
+      </c>
+      <c r="G78">
+        <v>-0.09906192658359524</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.0004336896289741619</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0002151290224669733</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>-0.007663668159114362</v>
       </c>
       <c r="E79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.002448902486428532</v>
+      </c>
+      <c r="F79">
+        <v>0.001797446415245483</v>
+      </c>
+      <c r="G79">
+        <v>-0.008948265393932953</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.05580450919123577</v>
+        <v>-0.04014160087779765</v>
       </c>
       <c r="C80">
-        <v>0.05984150399728601</v>
+        <v>0.04608438044751877</v>
       </c>
       <c r="D80">
-        <v>-0.0251736853959658</v>
+        <v>-0.04323719004143126</v>
       </c>
       <c r="E80">
-        <v>0.01810926164752504</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.001544879927844054</v>
+      </c>
+      <c r="F80">
+        <v>0.02969113656012478</v>
+      </c>
+      <c r="G80">
+        <v>-0.02709365237731772</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1441205463809883</v>
+        <v>-0.1404316238524888</v>
       </c>
       <c r="C81">
-        <v>0.07094398584167029</v>
+        <v>0.09235065429251801</v>
       </c>
       <c r="D81">
-        <v>0.02674776564758551</v>
+        <v>0.07333686858040436</v>
       </c>
       <c r="E81">
-        <v>-0.03121744724610518</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.1028542615706884</v>
+      </c>
+      <c r="F81">
+        <v>0.009334045195949008</v>
+      </c>
+      <c r="G81">
+        <v>-0.0452391449935692</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.05833050099507358</v>
+        <v>-0.1744986151736072</v>
       </c>
       <c r="C82">
-        <v>0.03672796451552073</v>
+        <v>0.1257848816706494</v>
       </c>
       <c r="D82">
-        <v>0.002659428100256863</v>
+        <v>0.1864988434195639</v>
       </c>
       <c r="E82">
-        <v>-0.0226800761627956</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.04892432235407828</v>
+      </c>
+      <c r="F82">
+        <v>0.04726246342737224</v>
+      </c>
+      <c r="G82">
+        <v>-0.02023224461078027</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02903728143662774</v>
+        <v>-0.02791348556688148</v>
       </c>
       <c r="C83">
-        <v>0.01918813973148534</v>
+        <v>0.03284062303713008</v>
       </c>
       <c r="D83">
-        <v>-0.01465130529482575</v>
+        <v>-0.03488558280680027</v>
       </c>
       <c r="E83">
-        <v>0.01472235333402841</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.01068132470047801</v>
+      </c>
+      <c r="F83">
+        <v>0.0197811886321309</v>
+      </c>
+      <c r="G83">
+        <v>-0.0512341697629912</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2511382465614483</v>
+        <v>-0.2134720066831444</v>
       </c>
       <c r="C85">
-        <v>0.1169454222219538</v>
+        <v>0.1256892872303048</v>
       </c>
       <c r="D85">
-        <v>0.05346038912490931</v>
+        <v>0.1097869996870139</v>
       </c>
       <c r="E85">
-        <v>-0.0968128610701656</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.05447266541302856</v>
+      </c>
+      <c r="F85">
+        <v>-0.02789911165521042</v>
+      </c>
+      <c r="G85">
+        <v>-0.00584636673575393</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01018551582551821</v>
+        <v>-0.01160572374186881</v>
       </c>
       <c r="C86">
-        <v>0.02133535951047777</v>
+        <v>0.02382243535941077</v>
       </c>
       <c r="D86">
-        <v>-0.05249024085387124</v>
+        <v>-0.08225959836355262</v>
       </c>
       <c r="E86">
-        <v>-0.003906055557097607</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.01805048204248608</v>
+      </c>
+      <c r="F86">
+        <v>0.07826091923169773</v>
+      </c>
+      <c r="G86">
+        <v>-0.1436708834407586</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.0139479014769956</v>
+        <v>-0.02027334476203368</v>
       </c>
       <c r="C87">
-        <v>0.02255715383973411</v>
+        <v>0.01524324814218279</v>
       </c>
       <c r="D87">
-        <v>-0.02601492864785265</v>
+        <v>-0.100188342995431</v>
       </c>
       <c r="E87">
-        <v>0.07567614553316455</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.03497988794846445</v>
+      </c>
+      <c r="F87">
+        <v>0.03262081274309866</v>
+      </c>
+      <c r="G87">
+        <v>-0.1020904239441047</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.09897128306036027</v>
+        <v>-0.08953034780577651</v>
       </c>
       <c r="C88">
-        <v>0.06032033328142805</v>
+        <v>0.06107875147826214</v>
       </c>
       <c r="D88">
-        <v>-0.04911607658649598</v>
+        <v>-0.01626696791016184</v>
       </c>
       <c r="E88">
-        <v>-0.02176569310206704</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.008052021132388011</v>
+      </c>
+      <c r="F88">
+        <v>0.07901800235456657</v>
+      </c>
+      <c r="G88">
+        <v>-0.07636454971343391</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1821110993287952</v>
+        <v>-0.210730422107478</v>
       </c>
       <c r="C89">
-        <v>-0.3846577322112364</v>
+        <v>-0.3711298751191884</v>
       </c>
       <c r="D89">
-        <v>-0.01839591132337389</v>
+        <v>0.02272929486421543</v>
       </c>
       <c r="E89">
-        <v>-0.02587166202845648</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.00604925254581744</v>
+      </c>
+      <c r="F89">
+        <v>0.03803995488636312</v>
+      </c>
+      <c r="G89">
+        <v>-0.07301117419756925</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1643957463051251</v>
+        <v>-0.1989747651031797</v>
       </c>
       <c r="C90">
-        <v>-0.3556413851970676</v>
+        <v>-0.3243687580142005</v>
       </c>
       <c r="D90">
-        <v>-0.02479446888671974</v>
+        <v>0.01459080201528038</v>
       </c>
       <c r="E90">
-        <v>0.01370797132813384</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.05423733650183719</v>
+      </c>
+      <c r="F90">
+        <v>0.03824545612911186</v>
+      </c>
+      <c r="G90">
+        <v>-0.0465647515319508</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.211835285902484</v>
+        <v>-0.1911035318849953</v>
       </c>
       <c r="C91">
-        <v>0.105121739793971</v>
+        <v>0.1307423957938959</v>
       </c>
       <c r="D91">
-        <v>0.03484286856736091</v>
+        <v>0.08869958627038577</v>
       </c>
       <c r="E91">
-        <v>-0.05316377263008771</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.1001874548207345</v>
+      </c>
+      <c r="F91">
+        <v>0.003859527987152653</v>
+      </c>
+      <c r="G91">
+        <v>-0.05663518252438902</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1738279381687068</v>
+        <v>-0.1801995654873149</v>
       </c>
       <c r="C92">
-        <v>-0.2852090286645328</v>
+        <v>-0.2765824315023766</v>
       </c>
       <c r="D92">
-        <v>0.02744997732832535</v>
+        <v>-0.002128459419466268</v>
       </c>
       <c r="E92">
-        <v>0.01192087136884411</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.077106237936587</v>
+      </c>
+      <c r="F92">
+        <v>-0.0096550129834382</v>
+      </c>
+      <c r="G92">
+        <v>-0.09065729688501165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1765825637975642</v>
+        <v>-0.2208293568597865</v>
       </c>
       <c r="C93">
-        <v>-0.3340260149539548</v>
+        <v>-0.3205749384004863</v>
       </c>
       <c r="D93">
-        <v>-0.01756356608430036</v>
+        <v>-0.001155163106639031</v>
       </c>
       <c r="E93">
-        <v>0.01587526281172592</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.0375676199534284</v>
+      </c>
+      <c r="F93">
+        <v>0.0256688634513138</v>
+      </c>
+      <c r="G93">
+        <v>-0.05477262338436627</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2827746318673217</v>
+        <v>-0.339755215379988</v>
       </c>
       <c r="C94">
-        <v>0.1242594952861764</v>
+        <v>0.1907810370718949</v>
       </c>
       <c r="D94">
-        <v>0.05816707820185786</v>
+        <v>0.3971100090525947</v>
       </c>
       <c r="E94">
-        <v>-0.07484996859669939</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.3496195575663018</v>
+      </c>
+      <c r="F94">
+        <v>0.02522404185409893</v>
+      </c>
+      <c r="G94">
+        <v>0.4118290654362451</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.08249239996941055</v>
+        <v>-0.0812056657894409</v>
       </c>
       <c r="C95">
-        <v>0.08036316770464447</v>
+        <v>0.08523598552384384</v>
       </c>
       <c r="D95">
-        <v>-0.03177145826757273</v>
+        <v>-0.1389409702122607</v>
       </c>
       <c r="E95">
-        <v>0.07731063276748644</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1566088334965845</v>
+      </c>
+      <c r="F95">
+        <v>-0.007651464818873111</v>
+      </c>
+      <c r="G95">
+        <v>-0.01105643984872214</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2122827554472456</v>
+        <v>-0.1957475400540974</v>
       </c>
       <c r="C98">
-        <v>0.03080464590299943</v>
+        <v>0.04175842734042457</v>
       </c>
       <c r="D98">
-        <v>0.00336585682943292</v>
+        <v>-0.1312510614169017</v>
       </c>
       <c r="E98">
-        <v>0.04672769460100445</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.1816018375096223</v>
+      </c>
+      <c r="F98">
+        <v>-0.08161806357676427</v>
+      </c>
+      <c r="G98">
+        <v>0.0419916220042926</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +2994,62 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01065032505819544</v>
+        <v>-0.007571566101993232</v>
       </c>
       <c r="C101">
-        <v>0.02110415199964643</v>
+        <v>0.02257749148133927</v>
       </c>
       <c r="D101">
-        <v>-0.005207494998067749</v>
+        <v>-0.01603331711103234</v>
       </c>
       <c r="E101">
-        <v>-0.01443141557482248</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.00808853794003684</v>
+      </c>
+      <c r="F101">
+        <v>0.03445500245033098</v>
+      </c>
+      <c r="G101">
+        <v>-0.09824962695946808</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1264201305841879</v>
+        <v>-0.1228350756462805</v>
       </c>
       <c r="C102">
-        <v>0.06934522275668593</v>
+        <v>0.09626617954185808</v>
       </c>
       <c r="D102">
-        <v>0.01527535433895624</v>
+        <v>0.05196281728204289</v>
       </c>
       <c r="E102">
-        <v>-0.0366849684006931</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.01578188733896299</v>
+      </c>
+      <c r="F102">
+        <v>-0.004700195183798612</v>
+      </c>
+      <c r="G102">
+        <v>-0.02490184152119227</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,22 +3063,34 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.01177412708296834</v>
+        <v>0.004369427238549598</v>
       </c>
       <c r="C104">
-        <v>0.02377158600328548</v>
+        <v>0.007059824884474266</v>
       </c>
       <c r="D104">
-        <v>-0.9680183969917436</v>
+        <v>-0.08901916009078688</v>
       </c>
       <c r="E104">
-        <v>-0.09055492842483125</v>
+        <v>0.09722005604884257</v>
+      </c>
+      <c r="F104">
+        <v>0.9188144094004213</v>
+      </c>
+      <c r="G104">
+        <v>0.2944006176944353</v>
       </c>
     </row>
   </sheetData>
